--- a/docs/単体テスト/サーバー側/JUnitテストケース.xlsx
+++ b/docs/単体テスト/サーバー側/JUnitテストケース.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OWNER\Downloads\pleiades-4.8.0-java-win-64bit-jre_20180923\pleiades\workspace\poker\docs\単体テスト\サーバー側\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CB95998-1311-46A2-A9D3-5261B04C1E77}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B7DB857-132A-48D1-987B-4D18896278C9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17484" windowHeight="7764" xr2:uid="{569B4C10-2D2E-422C-881C-247CD6F9FE90}"/>
   </bookViews>
   <sheets>
     <sheet name="テストケース" sheetId="3" r:id="rId1"/>
+    <sheet name="改訂履歴" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="38">
   <si>
     <t>確認対象</t>
     <rPh sb="0" eb="2">
@@ -301,6 +302,85 @@
   </si>
   <si>
     <t>BetTest.CPUWinner()</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>V1.0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バージョン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>改修内容</t>
+    <rPh sb="0" eb="2">
+      <t>カイシュウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作業日</t>
+    <rPh sb="0" eb="2">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>V1.1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・所持金情報が取得できない場合、エラーを返すこと</t>
+    <rPh sb="1" eb="4">
+      <t>ショジキン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BetTest.moneyNotFound()</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新規作成</t>
+    <rPh sb="0" eb="4">
+      <t>シンキサクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・確認対象【ベット】の「所持金情報が取得できない場合、エラーを返すこと」のテストを追加</t>
+    <rPh sb="1" eb="3">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ツイカ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -333,12 +413,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -347,18 +442,85 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="5">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -372,13 +534,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{14316C40-D7F5-428D-9114-EE51D7B190E2}" name="テーブル1" displayName="テーブル1" ref="A1:D11" totalsRowShown="0">
-  <autoFilter ref="A1:D11" xr:uid="{E29699C6-BF28-4E59-9781-BDDEF8CC1F3D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{14316C40-D7F5-428D-9114-EE51D7B190E2}" name="テーブル1" displayName="テーブル1" ref="A1:D12" totalsRowShown="0">
+  <autoFilter ref="A1:D12" xr:uid="{E29699C6-BF28-4E59-9781-BDDEF8CC1F3D}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{CDD1AAF5-9F97-4125-9905-E14A4F636BE2}" name="確認対象"/>
     <tableColumn id="2" xr3:uid="{D108CEC9-FBE7-4DD5-986A-F1CEEB35E62E}" name="確認内容"/>
     <tableColumn id="3" xr3:uid="{2977D802-3092-458C-BBE2-1F3904D98520}" name="対応メソッド"/>
-    <tableColumn id="4" xr3:uid="{8BFCE28F-D7E8-4375-A665-DBBAB6AEB02B}" name="結果"/>
+    <tableColumn id="4" xr3:uid="{8BFCE28F-D7E8-4375-A665-DBBAB6AEB02B}" name="結果" dataDxfId="4"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0728B9CB-C976-4E69-B4A1-0B948E0DD46B}" name="テーブル2" displayName="テーブル2" ref="A1:C3" totalsRowShown="0" dataDxfId="0">
+  <autoFilter ref="A1:C3" xr:uid="{493967A4-BB8F-47E2-888F-3169B8AFE097}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{59F0E347-6180-4621-A528-35D47CF33F58}" name="バージョン" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{99A94A4F-A845-44FE-8C23-0490238BEEFD}" name="改修内容" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{76FF8506-29EC-45FD-86FD-4A52061FCC63}" name="作業日" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -681,11 +855,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E45CE1C0-BA77-4FDC-8053-F22C06395622}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
@@ -718,6 +890,9 @@
       <c r="C2" t="s">
         <v>17</v>
       </c>
+      <c r="D2" s="2" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
@@ -729,6 +904,9 @@
       <c r="C3" t="s">
         <v>18</v>
       </c>
+      <c r="D3" s="2" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
@@ -740,6 +918,9 @@
       <c r="C4" t="s">
         <v>19</v>
       </c>
+      <c r="D4" s="2" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="5" spans="1:4" ht="54" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
@@ -751,6 +932,9 @@
       <c r="C5" t="s">
         <v>21</v>
       </c>
+      <c r="D5" s="2" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
@@ -762,6 +946,9 @@
       <c r="C6" t="s">
         <v>23</v>
       </c>
+      <c r="D6" s="2" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
@@ -773,6 +960,9 @@
       <c r="C7" t="s">
         <v>24</v>
       </c>
+      <c r="D7" s="2" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
@@ -784,6 +974,9 @@
       <c r="C8" t="s">
         <v>20</v>
       </c>
+      <c r="D8" s="2" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
@@ -795,16 +988,22 @@
       <c r="C9" t="s">
         <v>25</v>
       </c>
+      <c r="D9" s="2" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>35</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
@@ -816,6 +1015,23 @@
       </c>
       <c r="C11" t="s">
         <v>27</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -826,4 +1042,61 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69B9F086-9105-4B83-B052-4B5F33002E4C}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="16.796875" customWidth="1"/>
+    <col min="2" max="2" width="79.296875" customWidth="1"/>
+    <col min="3" max="3" width="26.59765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="4">
+        <v>43505</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="4">
+        <v>43507</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/docs/単体テスト/サーバー側/JUnitテストケース.xlsx
+++ b/docs/単体テスト/サーバー側/JUnitテストケース.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OWNER\Downloads\pleiades-4.8.0-java-win-64bit-jre_20180923\pleiades\workspace\poker\docs\単体テスト\サーバー側\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B7DB857-132A-48D1-987B-4D18896278C9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C789B209-46C7-431D-8487-6EA8A3F98995}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17484" windowHeight="7764" xr2:uid="{569B4C10-2D2E-422C-881C-247CD6F9FE90}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="45">
   <si>
     <t>確認対象</t>
     <rPh sb="0" eb="2">
@@ -69,45 +69,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・入力内容がポーカーユーザー情報テーブルに保存されていること
-・所持金テーブルに登録ユーザーのユーザーIDをPKに持つレコードが保存されていること
-・取得した所持金は1000円なこと</t>
-    <rPh sb="1" eb="3">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ホゾン</t>
-    </rPh>
-    <rPh sb="32" eb="35">
-      <t>ショジキン</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="57" eb="58">
-      <t>モ</t>
-    </rPh>
-    <rPh sb="64" eb="66">
-      <t>ホゾン</t>
-    </rPh>
-    <rPh sb="75" eb="77">
-      <t>シュトク</t>
-    </rPh>
-    <rPh sb="79" eb="82">
-      <t>ショジキン</t>
-    </rPh>
-    <rPh sb="87" eb="88">
-      <t>エン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>・同一ユーザー名が登録されている場合、エラーになること</t>
     <rPh sb="1" eb="3">
       <t>ドウイツ</t>
@@ -127,25 +88,6 @@
     <t>ランキング表示</t>
     <rPh sb="5" eb="7">
       <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・所持金・更新日時でソートされた状態で取得できること</t>
-    <rPh sb="1" eb="4">
-      <t>ショジキン</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ニチジ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ジョウタイ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>シュトク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -229,35 +171,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・プレイヤーが勝者の場合、ベット額分所持金が増えていること</t>
-    <rPh sb="7" eb="9">
-      <t>ショウシャ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>ガク</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>ブン</t>
-    </rPh>
-    <rPh sb="18" eb="21">
-      <t>ショジキン</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>フ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・CPUが勝者の場合、ベット額分所持金が減っていること</t>
-    <rPh sb="20" eb="21">
-      <t>ヘ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>UserRegisterTest.success()</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -371,7 +284,186 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・確認対象【ベット】の「所持金情報が取得できない場合、エラーを返すこと」のテストを追加</t>
+    <t>・所持金及び更新日時の降順でソートされた状態で取得できること</t>
+    <rPh sb="1" eb="4">
+      <t>ショジキン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>オヨ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ニチジ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>コウジュン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BetTest.draw()</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テスト区分</t>
+    <rPh sb="3" eb="5">
+      <t>クブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>正常系</t>
+    <rPh sb="0" eb="2">
+      <t>セイジョウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>異常系</t>
+    <rPh sb="0" eb="2">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・入力内容がポーカーユーザー情報テーブルに保存されていること
+・所持金テーブルに登録ユーザーのユーザーIDをPKに持つレコードが保存されていること
+・登録したユーザーのユーザーIDで所持金情報が取得できること
+・取得した所持金は1000円なこと
+・所持金情報の更新日時はnullになっていること</t>
+    <rPh sb="1" eb="3">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="32" eb="35">
+      <t>ショジキン</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="75" eb="77">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="91" eb="94">
+      <t>ショジキン</t>
+    </rPh>
+    <rPh sb="94" eb="96">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="97" eb="99">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="106" eb="108">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="110" eb="113">
+      <t>ショジキン</t>
+    </rPh>
+    <rPh sb="118" eb="119">
+      <t>エン</t>
+    </rPh>
+    <rPh sb="124" eb="127">
+      <t>ショジキン</t>
+    </rPh>
+    <rPh sb="127" eb="129">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="130" eb="132">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="132" eb="134">
+      <t>ニチジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・引き分けの場合、ベット額が変化していないこと
+・更新日時が更新されていること</t>
+    <rPh sb="1" eb="2">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヘンカ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ニチジ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・CPUが勝者の場合、ベット額分所持金が減っていること
+・更新日時が更新されていること</t>
+    <rPh sb="20" eb="21">
+      <t>ヘ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・プレイヤーが勝者の場合、ベット額分所持金が増えていること
+・更新日時が更新されていること</t>
+    <rPh sb="7" eb="9">
+      <t>ショウシャ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ガク</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="18" eb="21">
+      <t>ショジキン</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>フ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>V1.2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●確認対象【ベット】の「所持金情報が取得できない場合、エラーを返すこと」のテストを追加</t>
     <rPh sb="1" eb="3">
       <t>カクニン</t>
     </rPh>
@@ -379,6 +471,100 @@
       <t>タイショウ</t>
     </rPh>
     <rPh sb="41" eb="43">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">共通
+----------------------------------
+●どんなテストなのか明確にするために、「テスト区分」列を追加
+ユーザー登録
+----------------------------------------
+●ユーザー登録の正常系に以下の確認内容を追加
+                            ・登録したユーザーのユーザーIDで所持金情報が取得できること
+ ・所持金情報の更新日時はnullになっていること
+ランキング表示
+-------------------------------------
+●ランキング表示のソートの詳細を追加(所持金及び更新日時の降順)
+ベット
+--------------------------------------
+●【ベット】のテストケース「プレイヤーが勝者・CPUが勝者」の確認内容に更新日時が更新されていることを追加
+●【ベット】の「ポーカーの勝負結果が引き分けだった場合」のテストを追加
+</t>
+    <rPh sb="0" eb="2">
+      <t>キョウツウ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>メイカク</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>クブン</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>レツ</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="74" eb="76">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="123" eb="125">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="126" eb="128">
+      <t>セイジョウ</t>
+    </rPh>
+    <rPh sb="128" eb="129">
+      <t>ケイ</t>
+    </rPh>
+    <rPh sb="130" eb="132">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="133" eb="135">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="135" eb="137">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="138" eb="140">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="232" eb="234">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="279" eb="281">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="286" eb="288">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="289" eb="291">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="370" eb="372">
+      <t>ショウシャ</t>
+    </rPh>
+    <rPh sb="377" eb="379">
+      <t>ショウシャ</t>
+    </rPh>
+    <rPh sb="381" eb="383">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="383" eb="385">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="386" eb="388">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="388" eb="390">
+      <t>ニチジ</t>
+    </rPh>
+    <rPh sb="391" eb="393">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="401" eb="403">
       <t>ツイカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -413,7 +599,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -436,13 +622,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -458,14 +657,20 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="5">
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
@@ -520,6 +725,9 @@
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -534,10 +742,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{14316C40-D7F5-428D-9114-EE51D7B190E2}" name="テーブル1" displayName="テーブル1" ref="A1:D12" totalsRowShown="0">
-  <autoFilter ref="A1:D12" xr:uid="{E29699C6-BF28-4E59-9781-BDDEF8CC1F3D}"/>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{CDD1AAF5-9F97-4125-9905-E14A4F636BE2}" name="確認対象"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{14316C40-D7F5-428D-9114-EE51D7B190E2}" name="テーブル1" displayName="テーブル1" ref="A1:E13" totalsRowShown="0">
+  <autoFilter ref="A1:E13" xr:uid="{E29699C6-BF28-4E59-9781-BDDEF8CC1F3D}"/>
+  <tableColumns count="5">
+    <tableColumn id="5" xr3:uid="{50067249-B73F-4D55-836E-DB0F18D6E8F0}" name="確認対象"/>
+    <tableColumn id="1" xr3:uid="{CDD1AAF5-9F97-4125-9905-E14A4F636BE2}" name="テスト区分"/>
     <tableColumn id="2" xr3:uid="{D108CEC9-FBE7-4DD5-986A-F1CEEB35E62E}" name="確認内容"/>
     <tableColumn id="3" xr3:uid="{2977D802-3092-458C-BBE2-1F3904D98520}" name="対応メソッド"/>
     <tableColumn id="4" xr3:uid="{8BFCE28F-D7E8-4375-A665-DBBAB6AEB02B}" name="結果" dataDxfId="4"/>
@@ -547,12 +756,12 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0728B9CB-C976-4E69-B4A1-0B948E0DD46B}" name="テーブル2" displayName="テーブル2" ref="A1:C3" totalsRowShown="0" dataDxfId="0">
-  <autoFilter ref="A1:C3" xr:uid="{493967A4-BB8F-47E2-888F-3169B8AFE097}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0728B9CB-C976-4E69-B4A1-0B948E0DD46B}" name="テーブル2" displayName="テーブル2" ref="A1:C4" totalsRowShown="0" dataDxfId="3">
+  <autoFilter ref="A1:C4" xr:uid="{493967A4-BB8F-47E2-888F-3169B8AFE097}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{59F0E347-6180-4621-A528-35D47CF33F58}" name="バージョン" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{99A94A4F-A845-44FE-8C23-0490238BEEFD}" name="改修内容" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{76FF8506-29EC-45FD-86FD-4A52061FCC63}" name="作業日" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{59F0E347-6180-4621-A528-35D47CF33F58}" name="バージョン" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{99A94A4F-A845-44FE-8C23-0490238BEEFD}" name="改修内容" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{76FF8506-29EC-45FD-86FD-4A52061FCC63}" name="作業日" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -855,183 +1064,239 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E45CE1C0-BA77-4FDC-8053-F22C06395622}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="16.8984375" customWidth="1"/>
-    <col min="2" max="2" width="63.3984375" customWidth="1"/>
-    <col min="3" max="3" width="45.59765625" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="67.296875" customWidth="1"/>
+    <col min="4" max="4" width="36.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="72" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" ht="108" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="36" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="72" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="54" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
+      <c r="B7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="E9" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="36" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="36" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="E12" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" t="s">
+    </row>
+    <row r="13" spans="1:5" ht="36" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" t="s">
         <v>34</v>
       </c>
-      <c r="C10" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>28</v>
+      <c r="E13" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1046,10 +1311,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69B9F086-9105-4B83-B052-4B5F33002E4C}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1061,21 +1326,21 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C2" s="4">
         <v>43505</v>
@@ -1083,13 +1348,24 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C3" s="4">
         <v>43507</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="360" x14ac:dyDescent="0.45">
+      <c r="A4" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="6">
+        <v>43508</v>
       </c>
     </row>
   </sheetData>

--- a/docs/単体テスト/サーバー側/JUnitテストケース.xlsx
+++ b/docs/単体テスト/サーバー側/JUnitテストケース.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OWNER\Downloads\pleiades-4.8.0-java-win-64bit-jre_20180923\pleiades\workspace\poker\docs\単体テスト\サーバー側\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C789B209-46C7-431D-8487-6EA8A3F98995}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2873F160-F526-4344-9DB8-5909C1A7FD63}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17484" windowHeight="7764" xr2:uid="{569B4C10-2D2E-422C-881C-247CD6F9FE90}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="47">
   <si>
     <t>確認対象</t>
     <rPh sb="0" eb="2">
@@ -336,71 +336,6 @@
     </rPh>
     <rPh sb="2" eb="3">
       <t>ケイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・入力内容がポーカーユーザー情報テーブルに保存されていること
-・所持金テーブルに登録ユーザーのユーザーIDをPKに持つレコードが保存されていること
-・登録したユーザーのユーザーIDで所持金情報が取得できること
-・取得した所持金は1000円なこと
-・所持金情報の更新日時はnullになっていること</t>
-    <rPh sb="1" eb="3">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ホゾン</t>
-    </rPh>
-    <rPh sb="32" eb="35">
-      <t>ショジキン</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="57" eb="58">
-      <t>モ</t>
-    </rPh>
-    <rPh sb="64" eb="66">
-      <t>ホゾン</t>
-    </rPh>
-    <rPh sb="75" eb="77">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="91" eb="94">
-      <t>ショジキン</t>
-    </rPh>
-    <rPh sb="94" eb="96">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="97" eb="99">
-      <t>シュトク</t>
-    </rPh>
-    <rPh sb="106" eb="108">
-      <t>シュトク</t>
-    </rPh>
-    <rPh sb="110" eb="113">
-      <t>ショジキン</t>
-    </rPh>
-    <rPh sb="118" eb="119">
-      <t>エン</t>
-    </rPh>
-    <rPh sb="124" eb="127">
-      <t>ショジキン</t>
-    </rPh>
-    <rPh sb="127" eb="129">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="130" eb="132">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="132" eb="134">
-      <t>ニチジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -566,6 +501,105 @@
     </rPh>
     <rPh sb="401" eb="403">
       <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・入力内容がポーカーユーザー情報テーブルに保存されていること
+・所持金テーブルに登録ユーザーのユーザーIDをPKに持つレコードが保存されていること
+・ログイン日時に値が入っていること
+・登録したユーザーのユーザーIDで所持金情報が取得できること
+・取得した所持金は1000円なこと
+・所持金情報の更新日時に値が入っていること</t>
+    <rPh sb="1" eb="3">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="32" eb="35">
+      <t>ショジキン</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="79" eb="81">
+      <t>ニチジ</t>
+    </rPh>
+    <rPh sb="82" eb="83">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="84" eb="85">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="93" eb="95">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="109" eb="112">
+      <t>ショジキン</t>
+    </rPh>
+    <rPh sb="112" eb="114">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="115" eb="117">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="124" eb="126">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="128" eb="131">
+      <t>ショジキン</t>
+    </rPh>
+    <rPh sb="136" eb="137">
+      <t>エン</t>
+    </rPh>
+    <rPh sb="142" eb="145">
+      <t>ショジキン</t>
+    </rPh>
+    <rPh sb="145" eb="147">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="148" eb="150">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="150" eb="152">
+      <t>ニチジ</t>
+    </rPh>
+    <rPh sb="153" eb="154">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="155" eb="156">
+      <t>ハイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>V1.3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー登録
+----------------------------------------
+●ユーザー登録の正常系に以下の確認内容を追加
+・ログイン日時に値が入っていること
+              ・所持金情報の更新日時に値が入っていること</t>
+    <rPh sb="115" eb="116">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="117" eb="118">
+      <t>ハイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -756,8 +790,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0728B9CB-C976-4E69-B4A1-0B948E0DD46B}" name="テーブル2" displayName="テーブル2" ref="A1:C4" totalsRowShown="0" dataDxfId="3">
-  <autoFilter ref="A1:C4" xr:uid="{493967A4-BB8F-47E2-888F-3169B8AFE097}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0728B9CB-C976-4E69-B4A1-0B948E0DD46B}" name="テーブル2" displayName="テーブル2" ref="A1:C5" totalsRowShown="0" dataDxfId="3">
+  <autoFilter ref="A1:C5" xr:uid="{493967A4-BB8F-47E2-888F-3169B8AFE097}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{59F0E347-6180-4621-A528-35D47CF33F58}" name="バージョン" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{99A94A4F-A845-44FE-8C23-0490238BEEFD}" name="改修内容" dataDxfId="1"/>
@@ -1095,7 +1129,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="108" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" ht="126" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1103,7 +1137,7 @@
         <v>36</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D2" t="s">
         <v>13</v>
@@ -1112,7 +1146,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="36" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1146,7 +1180,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="72" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" ht="54" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1256,7 +1290,7 @@
         <v>36</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D11" t="s">
         <v>23</v>
@@ -1273,7 +1307,7 @@
         <v>36</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D12" t="s">
         <v>22</v>
@@ -1290,7 +1324,7 @@
         <v>36</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D13" t="s">
         <v>34</v>
@@ -1311,10 +1345,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69B9F086-9105-4B83-B052-4B5F33002E4C}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView showGridLines="0" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1351,7 +1385,7 @@
         <v>29</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C3" s="4">
         <v>43507</v>
@@ -1359,13 +1393,24 @@
     </row>
     <row r="4" spans="1:3" ht="360" x14ac:dyDescent="0.45">
       <c r="A4" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C4" s="6">
         <v>43508</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="135.6" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="6">
+        <v>43509</v>
       </c>
     </row>
   </sheetData>

--- a/docs/単体テスト/サーバー側/JUnitテストケース.xlsx
+++ b/docs/単体テスト/サーバー側/JUnitテストケース.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OWNER\Downloads\pleiades-4.8.0-java-win-64bit-jre_20180923\pleiades\workspace\poker\docs\単体テスト\サーバー側\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2873F160-F526-4344-9DB8-5909C1A7FD63}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC95EC08-D8DA-42FA-8240-863E5515E13A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17484" windowHeight="7764" xr2:uid="{569B4C10-2D2E-422C-881C-247CD6F9FE90}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{569B4C10-2D2E-422C-881C-247CD6F9FE90}"/>
   </bookViews>
   <sheets>
     <sheet name="テストケース" sheetId="3" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="57">
   <si>
     <t>確認対象</t>
     <rPh sb="0" eb="2">
@@ -600,6 +600,156 @@
     </rPh>
     <rPh sb="117" eb="118">
       <t>ハイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・所持金情報取得時、セッションに格納しているユーザー情報がnullの場合、
+セッションタイムアウトエラーを返すこと</t>
+    <rPh sb="1" eb="4">
+      <t>ショジキン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>カクノウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ベット額送信時、セッションに格納しているユーザー情報がnullの場合、
+セッションタイムアウトエラーを返すこと</t>
+    <rPh sb="4" eb="5">
+      <t>ガク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>トキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ポーカーの手札交換時、セッションに格納しているユーザー情報がnullの場合、
+セッションタイムアウトエラーを返すこと</t>
+    <rPh sb="6" eb="8">
+      <t>テフダ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>コウカン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>カクノウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ポーカーの勝敗による所持金更新時、セッションに格納しているユーザー情報がnullの場合、セッションタイムアウトエラーを返すこと</t>
+    <rPh sb="6" eb="8">
+      <t>ショウハイ</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>ショジキン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>カクノウ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BetTest.getMoneySessionTimeOut()</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BetTest.handChangeSessionTimeOut()</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BetTest.moneyUpdateSessionTimeOut()</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BetTest.betSessionTimeOut()</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>V1.4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●ベットのテストにセッションタイムアウトのテストを4つ追加(以下の対応メソッドのもの)
+・BetTest.getMoneySessionTimeOut()
+・BetTest.betSessionTimeOut()
+・BetTest.handChangeSessionTimeOut()
+・BetTest.moneyUpdateSessionTimeOut()
+●確認内容が「所持金情報が取得できない場合、エラーを返すこと」(対応メソッドBetTest.moneyNotFound())は不要なため、削除</t>
+    <rPh sb="27" eb="29">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="181" eb="183">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="183" eb="185">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="212" eb="214">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="243" eb="245">
+      <t>フヨウ</t>
+    </rPh>
+    <rPh sb="249" eb="251">
+      <t>サクジョ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -776,8 +926,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{14316C40-D7F5-428D-9114-EE51D7B190E2}" name="テーブル1" displayName="テーブル1" ref="A1:E13" totalsRowShown="0">
-  <autoFilter ref="A1:E13" xr:uid="{E29699C6-BF28-4E59-9781-BDDEF8CC1F3D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{14316C40-D7F5-428D-9114-EE51D7B190E2}" name="テーブル1" displayName="テーブル1" ref="A1:E17" totalsRowShown="0">
+  <autoFilter ref="A1:E17" xr:uid="{E29699C6-BF28-4E59-9781-BDDEF8CC1F3D}"/>
   <tableColumns count="5">
     <tableColumn id="5" xr3:uid="{50067249-B73F-4D55-836E-DB0F18D6E8F0}" name="確認対象"/>
     <tableColumn id="1" xr3:uid="{CDD1AAF5-9F97-4125-9905-E14A4F636BE2}" name="テスト区分"/>
@@ -790,8 +940,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0728B9CB-C976-4E69-B4A1-0B948E0DD46B}" name="テーブル2" displayName="テーブル2" ref="A1:C5" totalsRowShown="0" dataDxfId="3">
-  <autoFilter ref="A1:C5" xr:uid="{493967A4-BB8F-47E2-888F-3169B8AFE097}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0728B9CB-C976-4E69-B4A1-0B948E0DD46B}" name="テーブル2" displayName="テーブル2" ref="A1:C6" totalsRowShown="0" dataDxfId="3">
+  <autoFilter ref="A1:C6" xr:uid="{493967A4-BB8F-47E2-888F-3169B8AFE097}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{59F0E347-6180-4621-A528-35D47CF33F58}" name="バージョン" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{99A94A4F-A845-44FE-8C23-0490238BEEFD}" name="改修内容" dataDxfId="1"/>
@@ -1098,7 +1248,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E45CE1C0-BA77-4FDC-8053-F22C06395622}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -1333,6 +1483,74 @@
         <v>24</v>
       </c>
     </row>
+    <row r="14" spans="1:5" ht="36" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="36" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="36" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" t="s">
+        <v>52</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="36" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1345,10 +1563,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69B9F086-9105-4B83-B052-4B5F33002E4C}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1413,6 +1631,17 @@
         <v>43509</v>
       </c>
     </row>
+    <row r="6" spans="1:3" ht="126" x14ac:dyDescent="0.45">
+      <c r="A6" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="6">
+        <v>43524</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
